--- a/Tests 10 for ID NIK33.xlsx
+++ b/Tests 10 for ID NIK33.xlsx
@@ -651,6 +651,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -665,18 +677,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1010,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1069,7 +1069,7 @@
       <pane xSplit="11" ySplit="7" topLeftCell="L8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1201,7 +1201,9 @@
         <v>6</v>
       </c>
       <c r="K3" s="11"/>
-      <c r="L3" s="22"/>
+      <c r="L3" s="22">
+        <v>44150</v>
+      </c>
       <c r="M3" s="11"/>
       <c r="N3" s="22"/>
       <c r="O3" s="11"/>
@@ -1285,43 +1287,43 @@
     </row>
     <row r="6" spans="1:122" ht="27" customHeight="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="51" t="s">
         <v>14</v>
       </c>
       <c r="E6" s="41"/>
-      <c r="F6" s="46" t="s">
+      <c r="F6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="52" t="s">
+      <c r="G6" s="50"/>
+      <c r="H6" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="48" t="s">
+      <c r="I6" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="54" t="s">
         <v>11</v>
       </c>
       <c r="K6" s="9"/>
-      <c r="L6" s="51" t="s">
+      <c r="L6" s="47" t="s">
         <v>20</v>
       </c>
       <c r="M6" s="11"/>
-      <c r="N6" s="51" t="s">
+      <c r="N6" s="47" t="s">
         <v>21</v>
       </c>
       <c r="O6" s="11"/>
-      <c r="P6" s="51"/>
+      <c r="P6" s="47"/>
       <c r="Q6" s="11"/>
-      <c r="R6" s="51"/>
+      <c r="R6" s="47"/>
       <c r="S6" s="11"/>
-      <c r="T6" s="51"/>
+      <c r="T6" s="47"/>
       <c r="U6" s="11"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
@@ -1331,9 +1333,9 @@
     </row>
     <row r="7" spans="1:122" ht="126.95" customHeight="1">
       <c r="A7" s="12"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="47"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="51"/>
       <c r="E7" s="41" t="s">
         <v>22</v>
       </c>
@@ -1343,19 +1345,19 @@
       <c r="G7" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="47"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="51"/>
+      <c r="N7" s="47"/>
       <c r="O7" s="11"/>
-      <c r="P7" s="51"/>
+      <c r="P7" s="47"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="51"/>
+      <c r="R7" s="47"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="51"/>
+      <c r="T7" s="47"/>
       <c r="U7" s="11"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
@@ -1784,7 +1786,7 @@
       <c r="D16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="46" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="45" t="s">
@@ -3033,6 +3035,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="R6:R7"/>
@@ -3040,11 +3047,6 @@
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="P6:P7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="N8:N10 R12:R42 P12:P42 T12:T42 T8:T10 P8:P10 R8:R10 N12:N42 L12:L42 L8:L10">
